--- a/ExcelExamples/Loans.xlsx
+++ b/ExcelExamples/Loans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoanFixedRate" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -66,12 +66,6 @@
     <t>QSA.CreateFXForecastCurve</t>
   </si>
   <si>
-    <t>baseCurrency</t>
-  </si>
-  <si>
-    <t>counterCurrency</t>
-  </si>
-  <si>
     <t>USDZARForwards</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>floatingIndex</t>
   </si>
   <si>
-    <t>JIBAR3M</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -108,12 +99,6 @@
     <t>floatingRateIndex</t>
   </si>
   <si>
-    <t>JIBAR6M</t>
-  </si>
-  <si>
-    <t>LIBOR3M</t>
-  </si>
-  <si>
     <t>QSA.CreateRateForecastCurveFromDiscount</t>
   </si>
   <si>
@@ -136,6 +121,21 @@
   </si>
   <si>
     <t>simpleFixedRate</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.3M</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.6M</t>
+  </si>
+  <si>
+    <t>USD.LIBOR.3M</t>
+  </si>
+  <si>
+    <t>currencyPair</t>
+  </si>
+  <si>
+    <t>USDZAR</t>
   </si>
 </sst>
 </file>
@@ -559,25 +559,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,23 +585,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>42639</v>
       </c>
@@ -609,7 +609,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>42730</v>
       </c>
@@ -618,7 +618,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>42820</v>
       </c>
@@ -627,7 +627,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>42912</v>
       </c>
@@ -636,7 +636,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>43004</v>
       </c>
@@ -645,7 +645,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>43095</v>
       </c>
@@ -654,7 +654,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>43185</v>
       </c>
@@ -663,7 +663,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>43277</v>
       </c>
@@ -672,7 +672,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>43369</v>
       </c>
@@ -682,21 +682,21 @@
     </row>
     <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>_xll.QSA.CreateLoanFixedRate(C2,C3,B7:B15,C7:C15,C4)</f>
-        <v>fixedLoan.13:03:33-25</v>
+        <v>fixedLoan.21:01:54-54</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,16 +705,16 @@
         <v>fixedLoanValueResults</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="8" t="str">
         <f>B18</f>
-        <v>fixedLoan.13:03:33-25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>fixedLoan.21:01:54-54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
@@ -722,24 +722,24 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="8" t="str">
         <f>'Curves and Model'!B28</f>
-        <v>curveModel.13:03:33-34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>curveModel.21:01:54-63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
         <f>_xll.QSA.Value(C22,C23,C25,C26)</f>
-        <v>fixedLoanValueResults.13:03:33-35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+        <v>fixedLoanValueResults.21:01:54-64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="9">
         <f>_xll.QSA.GetResults(B28,"value")</f>
@@ -755,25 +755,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,31 +781,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>42639</v>
       </c>
@@ -813,7 +813,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>42730</v>
       </c>
@@ -822,7 +822,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>42820</v>
       </c>
@@ -831,7 +831,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>42912</v>
       </c>
@@ -840,7 +840,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>43004</v>
       </c>
@@ -849,7 +849,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>43095</v>
       </c>
@@ -858,7 +858,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>43185</v>
       </c>
@@ -867,7 +867,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>43277</v>
       </c>
@@ -876,7 +876,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>43369</v>
       </c>
@@ -886,21 +886,21 @@
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>_xll.QSA.CreateLoanFloatingRate(C2,C3,B8:B16,C8:C16,C4,C5)</f>
-        <v>floatingLoan.13:03:33-33</v>
+        <v>floatingLoan.21:01:54-62</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,16 +909,16 @@
         <v>floatingLoanValueResults</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="8" t="str">
         <f>B19</f>
-        <v>floatingLoan.13:03:33-33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>floatingLoan.21:01:54-62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,24 +926,24 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="8" t="str">
         <f>'Curves and Model'!B28</f>
-        <v>curveModel.13:03:33-34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>curveModel.21:01:54-63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
         <f>_xll.QSA.Value(C23,C24,C26,C27)</f>
-        <v>floatingLoanValueResults.13:03:33-36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>floatingLoanValueResults.21:01:54-65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" s="9">
         <f>_xll.QSA.GetResults(B29,"value")</f>
@@ -959,20 +959,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,22 +991,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1026,21 +1026,21 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,13 +1060,14 @@
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="2">
-        <v>13.66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="M6" s="8" t="str">
+        <f>H10</f>
+        <v>USDDiscountAndBasis.21:01:54-57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>42636</v>
       </c>
@@ -1086,14 +1087,14 @@
         <v>0.01</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="8" t="str">
-        <f>H10</f>
-        <v>USDDiscountAndBasis.13:03:33-26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+        <f>E10</f>
+        <v>ZARBasis.21:01:54-55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>46288</v>
       </c>
@@ -1112,97 +1113,90 @@
       <c r="I8" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="8" t="str">
-        <f>E10</f>
-        <v>ZARBasis.13:03:33-27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.13:03:33-28</v>
+        <v>ZARDiscount.21:01:54-56</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(F3,E7:E8,F7:F8,F4)</f>
-        <v>ZARBasis.13:03:33-27</v>
+        <v>ZARBasis.21:01:54-55</v>
       </c>
       <c r="H10" s="4" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(I3,H7:H8,I7:I8,I4)</f>
-        <v>USDDiscountAndBasis.13:03:33-26</v>
+        <v>USDDiscountAndBasis.21:01:54-57</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f>_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7,M8)</f>
-        <v>USDZARForwards.13:03:33-32</v>
+        <f>_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7)</f>
+        <v>USDZARForwards.21:01:54-59</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
         <f>"forecast"&amp;C15</f>
-        <v>forecastJIBAR3M</v>
+        <v>forecastZAR.JIBAR.3M</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="str">
         <f>B10</f>
-        <v>ZARDiscount.13:03:33-28</v>
+        <v>ZARDiscount.21:01:54-56</v>
       </c>
       <c r="E15" s="4" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>forecastJIBAR3M.13:03:33-31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.3M.21:01:54-60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:B17" si="0">"forecast"&amp;C16</f>
-        <v>forecastJIBAR6M</v>
+        <v>forecastZAR.JIBAR.6M</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="str">
         <f>B10</f>
-        <v>ZARDiscount.13:03:33-28</v>
+        <v>ZARDiscount.21:01:54-56</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B16,C16,D16)</f>
-        <v>forecastJIBAR6M.13:03:33-30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.6M.21:01:54-61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>forecastLIBOR3M</v>
+        <v>forecastUSD.LIBOR.3M</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8" t="str">
         <f>H10</f>
-        <v>USDDiscountAndBasis.13:03:33-26</v>
+        <v>USDDiscountAndBasis.21:01:54-57</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B17,C17,D17)</f>
-        <v>forecastLIBOR3M.13:03:33-29</v>
+        <v>forecastUSD.LIBOR.3M.21:01:54-58</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1210,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,49 +1212,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8" t="str">
         <f>'Curves and Model'!B10</f>
-        <v>ZARDiscount.13:03:33-28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.21:01:54-56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="str">
         <f>E15</f>
-        <v>forecastJIBAR3M.13:03:33-31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.3M.21:01:54-60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="str">
         <f>E16</f>
-        <v>forecastJIBAR6M.13:03:33-30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.6M.21:01:54-61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="str">
         <f>E17</f>
-        <v>forecastLIBOR3M.13:03:33-29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastUSD.LIBOR.3M.21:01:54-58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="8" t="str">
         <f>'Curves and Model'!L10</f>
-        <v>USDZARForwards.13:03:33-32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>USDZARForwards.21:01:54-59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
         <f>_xll.QSA.CreateCurveModel(C21,C22,C23:C25,C26)</f>
-        <v>curveModel.13:03:33-34</v>
+        <v>curveModel.21:01:54-63</v>
       </c>
     </row>
   </sheetData>
